--- a/biology/Botanique/Flacourtiaceae/Flacourtiaceae.xlsx
+++ b/biology/Botanique/Flacourtiaceae/Flacourtiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la famille devenue obsolète des Flacourtiaceae regroupait des plantes dicotylédones et comprenait plus de 800 espèces réparties en près de 80 genres.
 Certaines espèces du genre Hydnocarpus (appelé aussi Taraktogenos) fournissent l'huile de Chaulmoogra qui constituait autrefois le seul remède efficace contre la lèpre.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Flacourtia qui rend hommage à l'explorateur, historien et biologiste français Étienne de Flacourt (1607–1660), qui fut gouverneur de Madagascar de 1650 à 1654.
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1800 la famille des Samydaceae (en), genre Samyda (en), était incluse dans les Flacourtiaceae avant qu'elle ne soit incluse dans les Salicaceae.
 La classification phylogénétique, ayant supprimé les ordres des Salicales et des Violales, a éclaté les  Flacourtiaceae dans deux familles de l'ordre des Malpighiales, une partie se retrouvant dans les Achariaceae, une autre dans les Salicaceae .
@@ -576,7 +592,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon [réf. nécessaire] :
 Abatia
@@ -659,7 +677,7 @@
 Xylosma G. Forst.
 Xylotheca
 Zuelania
-Selon DELTA Angio           (10 Aug 2010)[1] :
+Selon DELTA Angio           (10 Aug 2010) :
 Abatia
 Ahernia
 Aphaerema
@@ -740,7 +758,7 @@
 Xylosma
 Xylotheca
 Zuelania
-Selon ITIS      (10 Aug 2010)[2] :
+Selon ITIS      (10 Aug 2010) :
 Banara Aubl.
 Caloncoba Gilg
 Casearia Jacq.
